--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1848313.439280787</v>
+        <v>1845936.812333421</v>
       </c>
     </row>
     <row r="7">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>295.7678311131574</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.1205759320737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>79.41653965146595</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>20.20520580535312</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>304.2638628171225</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>79.77884995491904</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>23.94563726208596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.0424133190818</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>53.43995086960384</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>226.9686834372097</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>19.6835035121836</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>196.4017961483592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>38.37250637580733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>167.7243167060843</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>75.12653431054544</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>94.30373791808189</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>55.30088041042008</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>61.44013021076765</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.4021082756242</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>139.511541534052</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>40.36264995190298</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="32">
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.986897510568</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085811915</v>
+        <v>121.8000472740302</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365955</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362943</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>124.4121185570315</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1505.042027525391</v>
+        <v>1146.918698535759</v>
       </c>
       <c r="C2" t="n">
-        <v>1505.042027525391</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D2" t="n">
-        <v>1146.77632891864</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E2" t="n">
-        <v>760.988076320396</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>350.0021715307884</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>1537.058030511571</v>
       </c>
       <c r="Y2" t="n">
-        <v>1505.042027525391</v>
+        <v>1146.918698535759</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4410,22 +4410,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800311</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
         <v>51.24678656800311</v>
@@ -4486,16 +4486,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1556.227393153825</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1333.24891234856</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.130574852398</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>789.4460866465112</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>500.0289166095505</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>272.0393657115332</v>
+        <v>549.7445279085429</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.24678656800311</v>
+        <v>549.7445279085429</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1688.365042002428</v>
+        <v>747.6266618878656</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.365042002428</v>
+        <v>747.6266618878656</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2481.754631475995</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2273.008990081819</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2019.427929345999</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1688.365042002428</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>1688.365042002428</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X5" t="n">
-        <v>1688.365042002428</v>
+        <v>1524.365833927799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1688.365042002428</v>
+        <v>1134.226501951987</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310612</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625327</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938516</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167645</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329316</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329316</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.258607688552</v>
+        <v>638.3033838959709</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.269056790534</v>
+        <v>410.3138329979536</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>199.1598801503962</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1182.87310169792</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="C8" t="n">
-        <v>813.9105847575083</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6448861507579</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>527.8767859460529</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>520.9312851968494</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>105.2265349211383</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>105.2265349211383</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2333.078031998934</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2333.078031998934</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2333.078031998934</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1959.612273737853</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y8" t="n">
-        <v>1569.472941762042</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>388.8041944123872</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>219.8680114844803</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>219.8680114844803</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>219.8680114844803</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4975,37 +4975,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485138</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.060467399387</v>
+        <v>570.452659242627</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>570.452659242627</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>570.452659242627</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>570.452659242627</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2104.342122433613</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2408.20297612995</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2225.348141784855</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.7309773356195</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2304.031991640193</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2084.430526663135</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1795.355300007332</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1540.670811801445</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1251.253641764485</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1023.264090866467</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>802.4715117229372</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,10 +5516,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>526.5658826424022</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556308</v>
+        <v>526.5658826424022</v>
       </c>
       <c r="E19" t="n">
-        <v>335.9629114732377</v>
+        <v>378.6527890600091</v>
       </c>
       <c r="F19" t="n">
-        <v>189.0729639753273</v>
+        <v>231.7628415620988</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>231.7628415620988</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,16 +5829,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,16 +6066,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819173</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695815</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>516.3896878871884</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>369.499740389278</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>202.303641104158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179072</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900003</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D28" t="n">
-        <v>443.4949469776645</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E28" t="n">
-        <v>443.4949469776645</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>443.4949469776645</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>276.2988476925445</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5870165347426</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614373</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179072</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>198.027470314254</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="38">
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,13 +7254,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>231.2582814363237</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>21.18099370047537</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>186.449012614385</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>255.8421700460949</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>255.8421700460948</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-1.048100336096456e-12</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.00274033431432</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.8603366460105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>105.8997516910992</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>71.22040037418695</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>84.9938324358038</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>84.99383243580152</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>32.89260457059963</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>6.922421112517128</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>40.90318636666255</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="32">
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>31.77834493961092</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405087</v>
+        <v>45.44677382459761</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345294982</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>15.8825942891924</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>874391.9782818923</v>
+        <v>874391.9782818921</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.9782818923</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.978281892</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>874391.9782818921</v>
+        <v>874391.978281892</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583913</v>
-      </c>
       <c r="E2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="G2" t="n">
-        <v>544823.9547907535</v>
+        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907537</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171966</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719635</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719671</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719656</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26522,46 +26522,46 @@
         <v>-786600.2249041173</v>
       </c>
       <c r="C6" t="n">
-        <v>328151.5586718027</v>
+        <v>328151.5586718024</v>
       </c>
       <c r="D6" t="n">
-        <v>328151.5586718023</v>
+        <v>328151.5586718024</v>
       </c>
       <c r="E6" t="n">
-        <v>-71291.38511941842</v>
+        <v>-71326.12304485432</v>
       </c>
       <c r="F6" t="n">
-        <v>436194.0565051271</v>
+        <v>436159.3185796917</v>
       </c>
       <c r="G6" t="n">
-        <v>436194.0565051269</v>
+        <v>436159.3185796915</v>
       </c>
       <c r="H6" t="n">
-        <v>436194.0565051269</v>
+        <v>436159.3185796916</v>
       </c>
       <c r="I6" t="n">
-        <v>436194.0565051271</v>
+        <v>436159.3185796915</v>
       </c>
       <c r="J6" t="n">
-        <v>268588.8786951447</v>
+        <v>268554.1407697088</v>
       </c>
       <c r="K6" t="n">
-        <v>436194.0565051269</v>
+        <v>436159.3185796912</v>
       </c>
       <c r="L6" t="n">
-        <v>436194.0565051272</v>
+        <v>436159.3185796911</v>
       </c>
       <c r="M6" t="n">
-        <v>303586.7627762005</v>
+        <v>303552.0248507647</v>
       </c>
       <c r="N6" t="n">
-        <v>436194.0565051272</v>
+        <v>436159.3185796916</v>
       </c>
       <c r="O6" t="n">
-        <v>436194.0565051271</v>
+        <v>436159.3185796911</v>
       </c>
       <c r="P6" t="n">
-        <v>436194.0565051275</v>
+        <v>436159.3185796911</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>115.7798716597966</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.6105247463954</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>115.2459207102715</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>205.504449583684</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50.41917880356044</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>43.67336544387535</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>262.5773610745051</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.54224003301303</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>12.26996180286665</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>24.07656669125234</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>125.7375445107477</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>55.73584717546876</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-2.711780146180205e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30204,7 +30204,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,46 +31279,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31449,16 +31449,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>270.948695672726</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>314.5984986256099</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>272.756932936465</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719501</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,7 +33500,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,34 +34214,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34787,19 +34787,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>622.4553810291977</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>356.6056756965984</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091737</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434847</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>553.3803448964255</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>591.2668520422178</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507077</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>180.6240912112796</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36124,7 +36124,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
         <v>735.300110790295</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>134.2025531565909</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306624</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
